--- a/trunk/doc/Timeline.xlsx
+++ b/trunk/doc/Timeline.xlsx
@@ -507,6 +507,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,11 +539,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,7 +839,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -850,151 +850,151 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:64" ht="26.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57"/>
+      <c r="BL2" s="57"/>
     </row>
     <row r="3" spans="2:64" ht="15" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:64" ht="15.75" thickBot="1">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="54" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="60" t="s">
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="55"/>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="56"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="61"/>
     </row>
     <row r="5" spans="2:64" s="14" customFormat="1">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
@@ -1180,8 +1180,8 @@
       </c>
     </row>
     <row r="6" spans="2:64" s="14" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="17">
         <v>22</v>
       </c>
@@ -1518,9 +1518,9 @@
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="36"/>
       <c r="O9" s="37"/>
       <c r="P9" s="50"/>
@@ -1592,11 +1592,11 @@
       <c r="M10" s="35"/>
       <c r="N10" s="36"/>
       <c r="O10" s="37"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="64"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="55"/>
       <c r="U10" s="36"/>
       <c r="V10" s="37"/>
       <c r="W10" s="36"/>
@@ -1661,25 +1661,25 @@
       <c r="M11" s="35"/>
       <c r="N11" s="36"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
       <c r="U11" s="36"/>
       <c r="V11" s="37"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
       <c r="AB11" s="36"/>
       <c r="AC11" s="37"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
       <c r="AI11" s="36"/>
       <c r="AJ11" s="37"/>
       <c r="AK11" s="36"/>
@@ -2037,7 +2037,7 @@
       <c r="BL16" s="39"/>
     </row>
     <row r="17" spans="2:64">
-      <c r="B17" s="53"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="7"/>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
@@ -2102,7 +2102,7 @@
       <c r="BL17" s="39"/>
     </row>
     <row r="18" spans="2:64">
-      <c r="B18" s="53"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="7"/>
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
@@ -2167,7 +2167,7 @@
       <c r="BL18" s="39"/>
     </row>
     <row r="19" spans="2:64">
-      <c r="B19" s="53"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="7"/>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
@@ -2297,7 +2297,7 @@
       <c r="BL20" s="39"/>
     </row>
     <row r="21" spans="2:64">
-      <c r="B21" s="53"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="7"/>
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
@@ -2362,7 +2362,7 @@
       <c r="BL21" s="39"/>
     </row>
     <row r="22" spans="2:64">
-      <c r="B22" s="53"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="7"/>
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
@@ -2427,7 +2427,7 @@
       <c r="BL22" s="39"/>
     </row>
     <row r="23" spans="2:64">
-      <c r="B23" s="53"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="7"/>
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
@@ -2557,7 +2557,7 @@
       <c r="BL24" s="39"/>
     </row>
     <row r="25" spans="2:64">
-      <c r="B25" s="53"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="7"/>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
@@ -2622,7 +2622,7 @@
       <c r="BL25" s="39"/>
     </row>
     <row r="26" spans="2:64">
-      <c r="B26" s="53"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="7"/>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
@@ -2687,7 +2687,7 @@
       <c r="BL26" s="39"/>
     </row>
     <row r="27" spans="2:64">
-      <c r="B27" s="53"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="7"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
@@ -2817,7 +2817,7 @@
       <c r="BL28" s="39"/>
     </row>
     <row r="29" spans="2:64">
-      <c r="B29" s="53"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="7"/>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
@@ -2882,7 +2882,7 @@
       <c r="BL29" s="39"/>
     </row>
     <row r="30" spans="2:64">
-      <c r="B30" s="53"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="7"/>
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
@@ -2947,7 +2947,7 @@
       <c r="BL30" s="39"/>
     </row>
     <row r="31" spans="2:64">
-      <c r="B31" s="53"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="7"/>
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
@@ -3077,7 +3077,7 @@
       <c r="BL32" s="39"/>
     </row>
     <row r="33" spans="2:64">
-      <c r="B33" s="53"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="7"/>
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
@@ -3142,7 +3142,7 @@
       <c r="BL33" s="39"/>
     </row>
     <row r="34" spans="2:64">
-      <c r="B34" s="53"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="7"/>
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
@@ -3207,7 +3207,7 @@
       <c r="BL34" s="39"/>
     </row>
     <row r="35" spans="2:64">
-      <c r="B35" s="53"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="7"/>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
@@ -3337,7 +3337,7 @@
       <c r="BL36" s="39"/>
     </row>
     <row r="37" spans="2:64">
-      <c r="B37" s="53"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="7"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
@@ -3402,7 +3402,7 @@
       <c r="BL37" s="39"/>
     </row>
     <row r="38" spans="2:64">
-      <c r="B38" s="53"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="7"/>
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
@@ -3467,7 +3467,7 @@
       <c r="BL38" s="39"/>
     </row>
     <row r="39" spans="2:64">
-      <c r="B39" s="53"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="7"/>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
@@ -3597,7 +3597,7 @@
       <c r="BL40" s="39"/>
     </row>
     <row r="41" spans="2:64">
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="7"/>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
@@ -3662,7 +3662,7 @@
       <c r="BL41" s="39"/>
     </row>
     <row r="42" spans="2:64">
-      <c r="B42" s="53"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="7"/>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
@@ -3727,7 +3727,7 @@
       <c r="BL42" s="39"/>
     </row>
     <row r="43" spans="2:64">
-      <c r="B43" s="53"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="7"/>
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>

--- a/trunk/doc/Timeline.xlsx
+++ b/trunk/doc/Timeline.xlsx
@@ -839,7 +839,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1558,14 +1558,14 @@
       <c r="AV9" s="36"/>
       <c r="AW9" s="36"/>
       <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
+      <c r="AY9" s="38"/>
       <c r="AZ9" s="36"/>
       <c r="BA9" s="36"/>
       <c r="BB9" s="36"/>
       <c r="BC9" s="36"/>
       <c r="BD9" s="36"/>
       <c r="BE9" s="36"/>
-      <c r="BF9" s="36"/>
+      <c r="BF9" s="38"/>
       <c r="BG9" s="36"/>
       <c r="BH9" s="36"/>
       <c r="BI9" s="36"/>
